--- a/biology/Médecine/Hôpital_régional_de_Tozeur/Hôpital_régional_de_Tozeur.xlsx
+++ b/biology/Médecine/Hôpital_régional_de_Tozeur/Hôpital_régional_de_Tozeur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Tozeur</t>
+          <t>Hôpital_régional_de_Tozeur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital régional de Tozeur ou hôpital régional Hédi-Jaballah est un hôpital régional tunisien, situé à Tozeur. Il dispose d'un service de réanimation et d'un service d'urgences.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Tozeur</t>
+          <t>Hôpital_régional_de_Tozeur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Soins hospitaliers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, le service de réanimation reçoit entre 50 et 60 patients par mois[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, le service de réanimation reçoit entre 50 et 60 patients par mois. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Tozeur</t>
+          <t>Hôpital_régional_de_Tozeur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1892, la ville de Tozeur n'a pas d'hôpital[2]. Les autorités coloniales françaises déclarent vouloir en construire un en 1932[3]. En 1971, les autorités tunisiennes déclarent vouloir un hôpital « complètement équipé » à Tozeur[4].
-En mars 2016, des travaux d'extension démarrent afin de construire un parking et d'agrandir le service des consultations externes[5].
-En 2020, il reçoit des aides de la diaspora tunisienne (équipements tels que lits de réanimation, concentrateurs d'oxygène, médicaments et protections contre le coronavirus) dans le cadre d'un hommage au « médecin martyr » Badreddine Aloui[6].
-Quatre nouveaux lits de soins intensifs sont ouverts au service de réanimation en mars 2021[1]. L'ouverture de trois nouveaux lits est annoncée pour les mois à venir[1]. 
-Le 1er décembre 2020, des proches d'un patient décédé saccagent le service des urgences et y détruisent des appareillages médicaux[7].
-En juin 2021, le ministre de la Santé, Faouzi Mehdi, annonce la construction d'un nouvel hôpital régional à Tozeur, dans le cadre du prochain plan quinquennal[8]. En août 2021, l'hôpital de Tozeur reçoit onze concentrateurs d'oxygène de dix litres et du matériel informatique de l'Allemagne[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1892, la ville de Tozeur n'a pas d'hôpital. Les autorités coloniales françaises déclarent vouloir en construire un en 1932. En 1971, les autorités tunisiennes déclarent vouloir un hôpital « complètement équipé » à Tozeur.
+En mars 2016, des travaux d'extension démarrent afin de construire un parking et d'agrandir le service des consultations externes.
+En 2020, il reçoit des aides de la diaspora tunisienne (équipements tels que lits de réanimation, concentrateurs d'oxygène, médicaments et protections contre le coronavirus) dans le cadre d'un hommage au « médecin martyr » Badreddine Aloui.
+Quatre nouveaux lits de soins intensifs sont ouverts au service de réanimation en mars 2021. L'ouverture de trois nouveaux lits est annoncée pour les mois à venir. 
+Le 1er décembre 2020, des proches d'un patient décédé saccagent le service des urgences et y détruisent des appareillages médicaux.
+En juin 2021, le ministre de la Santé, Faouzi Mehdi, annonce la construction d'un nouvel hôpital régional à Tozeur, dans le cadre du prochain plan quinquennal. En août 2021, l'hôpital de Tozeur reçoit onze concentrateurs d'oxygène de dix litres et du matériel informatique de l'Allemagne.
 </t>
         </is>
       </c>
